--- a/data/trans_dic/DC-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DC-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,05; 29,36</t>
+          <t>23,84; 29,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 18,94</t>
+          <t>14,11; 18,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,87; 16,76</t>
+          <t>11,78; 16,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,3; 39,25</t>
+          <t>31,46; 39,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,03; 33,06</t>
+          <t>28,25; 33,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,37; 29,43</t>
+          <t>24,83; 29,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,62; 24,12</t>
+          <t>18,66; 24,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,64; 58,15</t>
+          <t>52,26; 58,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,01; 30,9</t>
+          <t>26,96; 30,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,7; 24,18</t>
+          <t>20,78; 24,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,34; 20,11</t>
+          <t>16,32; 20,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>44,79; 49,57</t>
+          <t>45,12; 49,78</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,64; 13,81</t>
+          <t>10,54; 13,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 8,97</t>
+          <t>6,59; 8,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,14</t>
+          <t>5,73; 8,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,59; 21,86</t>
+          <t>17,86; 21,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 21,12</t>
+          <t>17,3; 21,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,47; 18,19</t>
+          <t>14,6; 18,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,86; 15,01</t>
+          <t>11,75; 14,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,43; 49,21</t>
+          <t>33,41; 47,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,25; 16,72</t>
+          <t>14,2; 16,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,84; 13,01</t>
+          <t>10,74; 12,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 11,09</t>
+          <t>9,15; 11,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,39; 36,02</t>
+          <t>26,49; 35,75</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 13,56</t>
+          <t>8,36; 13,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,62</t>
+          <t>3,36; 7,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,47</t>
+          <t>5,52; 10,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,68; 19,33</t>
+          <t>13,69; 19,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,41; 21,46</t>
+          <t>14,46; 20,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 18,65</t>
+          <t>11,51; 18,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 13,34</t>
+          <t>8,24; 13,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,35; 36,9</t>
+          <t>30,32; 36,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,83; 16,2</t>
+          <t>11,72; 16,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 12,14</t>
+          <t>7,87; 12,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 11,17</t>
+          <t>7,31; 10,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,18; 27,61</t>
+          <t>23,01; 27,43</t>
         </is>
       </c>
     </row>
@@ -1144,32 +1144,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,17; 17,86</t>
+          <t>15,06; 17,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 10,85</t>
+          <t>8,82; 10,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 9,74</t>
+          <t>7,73; 9,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,04; 23,23</t>
+          <t>19,96; 23,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,02; 25,19</t>
+          <t>21,84; 24,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,8; 21,54</t>
+          <t>18,83; 21,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,24; 47,26</t>
+          <t>38,32; 46,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,87; 20,89</t>
+          <t>19,02; 20,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,12; 15,86</t>
+          <t>14,2; 15,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,19; 12,79</t>
+          <t>11,15; 12,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,22; 35,73</t>
+          <t>30,21; 36,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DC-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,84; 29,43</t>
+          <t>23,84; 29,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,11; 18,96</t>
+          <t>14,03; 18,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,78; 16,78</t>
+          <t>11,77; 17,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,25; 33,24</t>
+          <t>27,86; 33,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,83; 29,53</t>
+          <t>24,4; 29,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,66; 24,11</t>
+          <t>18,57; 24,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,96; 30,66</t>
+          <t>27,07; 30,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,78; 24,37</t>
+          <t>20,72; 24,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,32; 20,04</t>
+          <t>16,46; 20,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,54; 13,66</t>
+          <t>10,49; 13,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 8,99</t>
+          <t>6,49; 8,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 8,22</t>
+          <t>5,74; 8,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,3; 21,37</t>
+          <t>17,27; 21,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,6; 18,14</t>
+          <t>14,54; 18,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 14,85</t>
+          <t>11,78; 14,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,2; 16,69</t>
+          <t>14,31; 16,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,74; 12,78</t>
+          <t>10,71; 12,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 11,04</t>
+          <t>9,13; 11,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,36; 13,75</t>
+          <t>8,35; 13,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,76</t>
+          <t>3,31; 7,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 10,4</t>
+          <t>5,47; 10,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,46; 20,97</t>
+          <t>14,31; 21,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,51; 18,57</t>
+          <t>11,5; 18,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,24; 13,56</t>
+          <t>8,31; 13,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 16,35</t>
+          <t>11,72; 16,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 12,04</t>
+          <t>7,9; 12,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 10,97</t>
+          <t>7,46; 11,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,06; 17,81</t>
+          <t>15,31; 17,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,82; 10,82</t>
+          <t>8,8; 10,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,73; 9,7</t>
+          <t>7,67; 9,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,84; 24,85</t>
+          <t>21,86; 24,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,83; 21,6</t>
+          <t>18,64; 21,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,88; 16,46</t>
+          <t>13,89; 16,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,02; 20,99</t>
+          <t>19,06; 20,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,2; 15,97</t>
+          <t>14,17; 15,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,15; 12,72</t>
+          <t>11,22; 12,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/DC-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DC-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,84; 29,46</t>
+          <t>24,05; 29,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,03; 18,9</t>
+          <t>13,95; 18,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,77; 17,02</t>
+          <t>11,87; 16,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,46; 39,03</t>
+          <t>31,3; 39,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,86; 33,08</t>
+          <t>28,03; 33,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,4; 29,53</t>
+          <t>24,37; 29,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,57; 24,09</t>
+          <t>18,62; 24,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,26; 58,12</t>
+          <t>52,64; 58,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,07; 30,64</t>
+          <t>27,01; 30,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,72; 24,27</t>
+          <t>20,7; 24,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,46; 20,41</t>
+          <t>16,34; 20,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,12; 49,78</t>
+          <t>44,79; 49,57</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,49; 13,69</t>
+          <t>10,64; 13,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 8,87</t>
+          <t>6,58; 8,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 8,11</t>
+          <t>5,91; 8,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,86; 21,76</t>
+          <t>17,59; 21,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,27; 21,15</t>
+          <t>17,28; 21,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,54; 18,24</t>
+          <t>14,47; 18,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,78; 14,91</t>
+          <t>11,86; 15,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,41; 47,41</t>
+          <t>33,43; 49,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,31; 16,79</t>
+          <t>14,25; 16,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,71; 12,89</t>
+          <t>10,84; 13,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,13; 11,14</t>
+          <t>9,16; 11,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,49; 35,75</t>
+          <t>26,39; 36,02</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 13,83</t>
+          <t>8,03; 13,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,9</t>
+          <t>3,32; 7,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 10,27</t>
+          <t>5,5; 10,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,69; 19,61</t>
+          <t>13,68; 19,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,31; 21,38</t>
+          <t>14,41; 21,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,5; 18,16</t>
+          <t>11,34; 18,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,31; 13,89</t>
+          <t>7,91; 13,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,32; 36,98</t>
+          <t>30,35; 36,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 16,21</t>
+          <t>11,83; 16,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,9; 12,08</t>
+          <t>7,99; 12,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,07</t>
+          <t>7,58; 11,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,01; 27,43</t>
+          <t>23,18; 27,61</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,31; 17,83</t>
+          <t>15,17; 17,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 10,95</t>
+          <t>8,83; 10,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 9,61</t>
+          <t>7,78; 9,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,96; 23,17</t>
+          <t>20,04; 23,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,86; 24,87</t>
+          <t>22,02; 25,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,64; 21,5</t>
+          <t>18,8; 21,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,89; 16,46</t>
+          <t>13,88; 16,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,32; 46,52</t>
+          <t>38,24; 47,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,06; 20,96</t>
+          <t>18,87; 20,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,17; 15,93</t>
+          <t>14,12; 15,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,22; 12,82</t>
+          <t>11,19; 12,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,21; 36,05</t>
+          <t>30,22; 35,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DC-Estudios-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>34,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>31,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>55,29%</t>
+          <t>54,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>31,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>47,33%</t>
+          <t>46,62%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,05; 29,36</t>
+          <t>24,91; 30,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 18,94</t>
+          <t>15,11; 20,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,87; 16,76</t>
+          <t>13,19; 18,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,3; 39,25</t>
+          <t>30,62; 38,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,03; 33,06</t>
+          <t>31,88; 37,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,37; 29,43</t>
+          <t>28,6; 33,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,62; 24,12</t>
+          <t>23,5; 29,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,64; 58,15</t>
+          <t>52,28; 57,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,01; 30,9</t>
+          <t>29,59; 33,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,7; 24,18</t>
+          <t>23,49; 27,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,34; 20,11</t>
+          <t>19,73; 23,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>44,79; 49,57</t>
+          <t>44,14; 48,91</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>41,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>29,73%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,64; 13,81</t>
+          <t>11,47; 14,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 8,97</t>
+          <t>6,93; 9,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,14</t>
+          <t>6,61; 9,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,59; 21,86</t>
+          <t>12,53; 20,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 21,12</t>
+          <t>22,13; 26,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,47; 18,19</t>
+          <t>17,72; 21,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,86; 15,01</t>
+          <t>14,28; 17,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,43; 49,21</t>
+          <t>34,14; 59,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,25; 16,72</t>
+          <t>16,95; 19,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,84; 13,01</t>
+          <t>12,45; 14,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 11,09</t>
+          <t>10,68; 12,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,39; 36,02</t>
+          <t>24,7; 40,79</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -946,52 +946,52 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,41%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>24,98%</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 13,56</t>
+          <t>9,71; 15,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,52 +1014,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,47</t>
+          <t>6,03; 10,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,68; 19,33</t>
+          <t>13,56; 19,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,41; 21,46</t>
+          <t>18,94; 26,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 18,65</t>
+          <t>15,41; 23,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 13,34</t>
+          <t>10,14; 16,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,35; 36,9</t>
+          <t>30,36; 36,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,83; 16,2</t>
+          <t>14,73; 19,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 12,14</t>
+          <t>10,0; 14,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 11,17</t>
+          <t>8,95; 12,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,18; 27,61</t>
+          <t>22,89; 27,37</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>40,65%</t>
+          <t>42,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>31,88%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,17; 17,86</t>
+          <t>16,27; 19,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 10,85</t>
+          <t>9,41; 11,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 9,74</t>
+          <t>8,59; 10,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,04; 23,23</t>
+          <t>15,58; 22,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,02; 25,19</t>
+          <t>26,41; 29,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,8; 21,54</t>
+          <t>22,43; 25,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,88; 16,46</t>
+          <t>17,06; 19,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,24; 47,26</t>
+          <t>38,51; 55,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,87; 20,89</t>
+          <t>21,63; 23,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,12; 15,86</t>
+          <t>16,26; 18,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,19; 12,79</t>
+          <t>13,18; 14,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,22; 35,73</t>
+          <t>28,61; 38,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DC-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,91; 30,29</t>
+          <t>24,96; 30,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,11; 20,09</t>
+          <t>15,05; 20,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,19; 18,5</t>
+          <t>12,96; 18,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,62; 38,59</t>
+          <t>30,46; 38,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,88; 37,12</t>
+          <t>32,33; 37,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,6; 33,76</t>
+          <t>28,56; 33,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,5; 29,43</t>
+          <t>23,27; 29,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,28; 57,79</t>
+          <t>52,11; 57,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,59; 33,44</t>
+          <t>29,69; 33,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,49; 27,21</t>
+          <t>23,38; 27,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,73; 23,73</t>
+          <t>19,83; 23,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>44,14; 48,91</t>
+          <t>44,25; 48,85</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,47; 14,79</t>
+          <t>11,37; 14,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 9,39</t>
+          <t>6,7; 9,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,03</t>
+          <t>6,5; 8,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,53; 20,85</t>
+          <t>12,97; 20,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,13; 26,06</t>
+          <t>21,96; 26,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,72; 21,69</t>
+          <t>17,64; 21,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,28; 17,67</t>
+          <t>14,18; 17,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,14; 59,42</t>
+          <t>33,91; 56,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,95; 19,61</t>
+          <t>17,02; 19,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,45; 14,82</t>
+          <t>12,44; 14,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,68; 12,72</t>
+          <t>10,66; 12,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,7; 40,79</t>
+          <t>24,83; 41,1</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,71; 15,45</t>
+          <t>9,89; 15,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,62</t>
+          <t>3,3; 7,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 10,95</t>
+          <t>5,88; 10,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,56; 19,33</t>
+          <t>13,64; 19,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,94; 26,52</t>
+          <t>18,19; 25,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,41; 23,13</t>
+          <t>14,91; 22,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,14; 16,34</t>
+          <t>10,48; 16,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,36; 36,94</t>
+          <t>30,15; 36,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,73; 19,92</t>
+          <t>14,7; 19,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 14,39</t>
+          <t>9,81; 14,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,95; 12,87</t>
+          <t>8,95; 12,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,89; 27,37</t>
+          <t>22,64; 27,3</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,27; 19,01</t>
+          <t>16,32; 18,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 11,49</t>
+          <t>9,38; 11,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 10,63</t>
+          <t>8,51; 10,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,58; 22,23</t>
+          <t>15,59; 22,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,41; 29,58</t>
+          <t>26,44; 29,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,43; 25,26</t>
+          <t>22,55; 25,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,06; 19,83</t>
+          <t>17,04; 19,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,51; 55,12</t>
+          <t>38,59; 53,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,63; 23,74</t>
+          <t>21,7; 23,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,26; 18,09</t>
+          <t>16,35; 18,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,18; 14,95</t>
+          <t>13,16; 14,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,61; 38,75</t>
+          <t>28,32; 38,49</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>285502</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>170496</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>117686</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>176964</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>454556</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>416346</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>261480</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>415336</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>740057</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>586842</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>379165</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>592300</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>257500; 314015</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>146670; 197673</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>97730; 137296</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>156840; 196375</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>425231; 488699</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>382044; 452015</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>231475; 289816</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>393696; 437070</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>696715; 785187</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>540649; 628097</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>346745; 417160</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>562208; 620651</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>219323</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>158297</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>159221</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>411266</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>380610</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>345075</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>316480</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>934907</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>599934</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>503373</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>475702</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1346173</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>192607; 247184</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>131575; 183309</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>134901; 185507</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>297065; 476817</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>348670; 415746</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>310091; 379930</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>281915; 347299</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>758746; 1265089</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>558542; 646935</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>463119; 549034</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>433123; 519156</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1124135; 1861038</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>68907</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24758</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>44784</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>106456</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>106431</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>86861</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>72181</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>220119</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>175338</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>111619</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>116966</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>326575</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>54540; 87059</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15856; 36499</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32179; 59631</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>88175; 125304</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>86641; 123339</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>68385; 104404</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>57563; 89499</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>199104; 241324</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>151113; 200872</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>92170; 133880</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>98068; 140885</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>295943; 356770</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2201</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1506</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1118</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3028</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>573733</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>353551</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>321691</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>694687</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>941596</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>848283</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>650141</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1570362</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1515329</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1201834</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>971833</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2265049</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>534641; 619071</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>320740; 395538</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>287371; 357037</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>538023; 767500</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>893553; 999137</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>801468; 902297</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>601748; 701767</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1410141; 1961415</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1444561; 1583231</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1140098; 1274730</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>909588; 1030247</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2012519; 2735244</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>